--- a/Risikomanagement/20160328_Risikomanagement_KC_V1 .xlsx
+++ b/Risikomanagement/20160328_Risikomanagement_KC_V1 .xlsx
@@ -100,14 +100,8 @@
     <t>Interviewpartner spielen vor das Prototyp gut ist</t>
   </si>
   <si>
-    <t>SAP- Jam fällt aus</t>
-  </si>
-  <si>
     <t>präventiv: ein weiteres Dokumentationstool verwenden
 reaktiv: Erstmal mit anderen Aufgaben weiter machen (z.B. weitere Interviews führen)</t>
-  </si>
-  <si>
-    <t>Post-Its gehen aus</t>
   </si>
   <si>
     <t>Kommunikationsprobleme Gruppenintern</t>
@@ -383,6 +377,12 @@
   </si>
   <si>
     <t>7,8,16,17,23,26</t>
+  </si>
+  <si>
+    <t>gitHub / Drobox fällt aus</t>
+  </si>
+  <si>
+    <t>Strom / Internet gehen aus</t>
   </si>
 </sst>
 </file>
@@ -1383,8 +1383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C2"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
@@ -1475,7 +1475,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>12</v>
@@ -1494,7 +1494,7 @@
         <v>13</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -1505,7 +1505,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D7" s="10">
         <v>3</v>
@@ -1521,7 +1521,7 @@
         <v>13</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1548,7 +1548,7 @@
         <v>13</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -1559,7 +1559,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D9" s="10">
         <v>3</v>
@@ -1575,7 +1575,7 @@
         <v>13</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1602,7 +1602,7 @@
         <v>20</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1625,10 +1625,10 @@
         <v>20</v>
       </c>
       <c r="G11" s="44" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H11" s="45" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1639,7 +1639,7 @@
         <v>24</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D12" s="10">
         <v>2</v>
@@ -1655,7 +1655,7 @@
         <v>23</v>
       </c>
       <c r="H12" s="45" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1663,10 +1663,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>25</v>
+        <v>108</v>
       </c>
       <c r="C13" s="46" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D13" s="10">
         <v>1</v>
@@ -1682,7 +1682,7 @@
         <v>23</v>
       </c>
       <c r="H13" s="45" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -1690,10 +1690,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D14" s="10">
         <v>1</v>
@@ -1709,7 +1709,7 @@
         <v>23</v>
       </c>
       <c r="H14" s="45" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -1717,10 +1717,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D15" s="10">
         <v>3</v>
@@ -1735,7 +1735,7 @@
         <v>13</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1743,10 +1743,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D16" s="10">
         <v>2</v>
@@ -1762,7 +1762,7 @@
         <v>13</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -1770,10 +1770,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D17" s="10">
         <v>2</v>
@@ -1789,7 +1789,7 @@
         <v>23</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1797,10 +1797,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D18" s="10">
         <v>2</v>
@@ -1816,7 +1816,7 @@
         <v>23</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -1824,10 +1824,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D19" s="10">
         <v>2</v>
@@ -1843,7 +1843,7 @@
         <v>23</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -1851,10 +1851,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D20" s="10">
         <v>3</v>
@@ -1870,7 +1870,7 @@
         <v>13</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1878,10 +1878,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D21" s="10">
         <v>2</v>
@@ -1897,7 +1897,7 @@
         <v>20</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -1905,10 +1905,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D22" s="10">
         <v>2</v>
@@ -1924,7 +1924,7 @@
         <v>13</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1932,10 +1932,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D23" s="10">
         <v>3</v>
@@ -1951,7 +1951,7 @@
         <v>13</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1959,10 +1959,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D24" s="10">
         <v>2</v>
@@ -1978,7 +1978,7 @@
         <v>23</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1986,10 +1986,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D25" s="10">
         <v>3</v>
@@ -2005,7 +2005,7 @@
         <v>13</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -2013,10 +2013,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C26" s="46" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D26" s="10">
         <v>1</v>
@@ -2032,7 +2032,7 @@
         <v>23</v>
       </c>
       <c r="H26" s="45" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -2040,10 +2040,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D27" s="10">
         <v>1</v>
@@ -2059,7 +2059,7 @@
         <v>23</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2067,10 +2067,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D28" s="10">
         <v>3</v>
@@ -2086,7 +2086,7 @@
         <v>13</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2094,10 +2094,10 @@
         <v>29</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D29" s="10">
         <v>3</v>
@@ -2113,7 +2113,7 @@
         <v>13</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2121,10 +2121,10 @@
         <v>30</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C30" s="46" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D30" s="10">
         <v>1</v>
@@ -2140,7 +2140,7 @@
         <v>13</v>
       </c>
       <c r="H30" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -2148,10 +2148,10 @@
         <v>31</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D31" s="10">
         <v>3</v>
@@ -2167,7 +2167,7 @@
         <v>23</v>
       </c>
       <c r="H31" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2351,7 +2351,7 @@
     <row r="2" spans="1:17" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="43"/>
       <c r="B2" s="24" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C2" s="25">
         <v>30</v>
@@ -2374,16 +2374,16 @@
     <row r="3" spans="1:17" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="42"/>
       <c r="B3" s="24" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C3" s="29">
         <v>25.26</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F3" s="31"/>
       <c r="G3" s="32"/>
@@ -2401,16 +2401,16 @@
     <row r="4" spans="1:17" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="42"/>
       <c r="B4" s="24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C4" s="29">
         <v>9</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F4" s="30"/>
       <c r="G4" s="32">
@@ -2430,11 +2430,11 @@
     <row r="5" spans="1:17" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="42"/>
       <c r="B5" s="35" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C5" s="29"/>
       <c r="D5" s="47" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E5" s="33">
         <v>18</v>
@@ -2457,7 +2457,7 @@
     <row r="6" spans="1:17" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="42"/>
       <c r="B6" s="24" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C6" s="37">
         <v>10.28</v>
@@ -2483,19 +2483,19 @@
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="F7" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="G7" s="40" t="s">
         <v>87</v>
-      </c>
-      <c r="F7" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="G7" s="40" t="s">
-        <v>89</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
